--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2154.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2154.xlsx
@@ -354,7 +354,7 @@
         <v>2.810726667192815</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.225840007673895</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2154.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2154.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.388011514255239</v>
+        <v>0.8769673109054565</v>
       </c>
       <c r="B1">
-        <v>2.810726667192815</v>
+        <v>1.308611154556274</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.225840007673895</v>
+        <v>1.702446818351746</v>
       </c>
       <c r="E1">
-        <v>0.6850276233404421</v>
+        <v>1.112001776695251</v>
       </c>
     </row>
   </sheetData>
